--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed1/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.90389999999999</v>
+        <v>-20.81409999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.80170000000001</v>
+        <v>-22.78780000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.06299999999997</v>
+        <v>-20.27869999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.31610000000002</v>
+        <v>-22.36700000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.93650000000001</v>
+        <v>-21.96800000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.0425</v>
+        <v>-19.9414</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.08009999999998</v>
+        <v>-20.19049999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.88430000000001</v>
+        <v>-21.87279999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.42269999999997</v>
+        <v>-21.40679999999996</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.58319999999999</v>
+        <v>-21.44580000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.13189999999999</v>
+        <v>-21.12609999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2692</v>
+        <v>-20.12590000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.7214</v>
+        <v>-21.82980000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.6039</v>
+        <v>-21.54869999999998</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.17999999999999</v>
+        <v>-22.12779999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.68390000000003</v>
+        <v>-22.68640000000003</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.33360000000001</v>
+        <v>-22.22420000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.20830000000002</v>
+        <v>-22.15020000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.3907</v>
+        <v>-21.4324</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.19859999999999</v>
+        <v>-20.2978</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.67159999999998</v>
+        <v>-21.63809999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.38769999999999</v>
+        <v>-20.11259999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.61570000000001</v>
+        <v>-21.6292</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.05410000000002</v>
+        <v>-22.08660000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
